--- a/public/asset/img/template.xlsx
+++ b/public/asset/img/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA3137F-52FA-4687-8D01-C7739E3FC678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7266AC6-1EE5-43F6-AC12-F9D3910B28EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="528" windowWidth="14220" windowHeight="8916" xr2:uid="{DBAC7C48-09E7-451E-A80A-5F214AE04C41}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBAC7C48-09E7-451E-A80A-5F214AE04C41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Mayang Ramadani</t>
   </si>
@@ -57,16 +49,27 @@
   </si>
   <si>
     <t>2002-02-02</t>
+  </si>
+  <si>
+    <t>mayang@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,14 +92,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7DD284-3AC2-479E-A5CC-A426A960AFC2}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="D1 E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,9 +430,10 @@
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="15.5546875" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>122333</v>
       </c>
@@ -457,9 +464,15 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L1" r:id="rId1" xr:uid="{F512773D-C662-4FA9-929D-D78E0BF3FDB4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>